--- a/Selenium/Bugs/data/genre/팝송.xlsx
+++ b/Selenium/Bugs/data/genre/팝송.xlsx
@@ -52,7 +52,7 @@
     <t>Bright Blue Skies</t>
   </si>
   <si>
-    <t>Losing My Mind</t>
+    <t xml:space="preserve">Losing My Mind </t>
   </si>
   <si>
     <t>Constant</t>
@@ -61,7 +61,7 @@
     <t>Falling In Love</t>
   </si>
   <si>
-    <t>In Your Wonderland</t>
+    <t xml:space="preserve">In Your Wonderland </t>
   </si>
   <si>
     <t>Maybe Another Time</t>
@@ -322,7 +322,7 @@
     <t>F2020</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Darlin'</t>
   </si>
   <si>
     <t>Y U Gotta B Like That</t>
@@ -421,13 +421,13 @@
     <t>Sunshine On My Shoulders</t>
   </si>
   <si>
-    <t>I'm Old Fashioned</t>
+    <t xml:space="preserve">I'm Old Fashioned </t>
   </si>
   <si>
     <t>Love Dance</t>
   </si>
   <si>
-    <t>Love Me Tender</t>
+    <t xml:space="preserve">Love Me Tender </t>
   </si>
   <si>
     <t>Oh My Love (Remastered 2010)</t>
